--- a/recidiviz/tests/justice_counts/bulk_upload/bulk_upload_fixtures/law_enforcement/law_enforcement_mismatched_totals.xlsx
+++ b/recidiviz/tests/justice_counts/bulk_upload/bulk_upload_fixtures/law_enforcement/law_enforcement_mismatched_totals.xlsx
@@ -316,28 +316,28 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1553,9 +1553,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1713,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>8</v>
@@ -1728,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>9</v>
@@ -1840,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>20</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>4</v>
@@ -1855,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>5</v>
@@ -1870,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>11</v>
@@ -1967,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>13</v>
@@ -1982,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
@@ -1997,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>10</v>
+        <v>24.5</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>15</v>
